--- a/proposal/proposal/timeline/TimeTable2.xlsx
+++ b/proposal/proposal/timeline/TimeTable2.xlsx
@@ -1252,7 +1252,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
